--- a/cálculos/exemplos.xlsx
+++ b/cálculos/exemplos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\aproveitte\cálculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{022ACCAE-D9A4-4076-BC32-D8472132681C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174172B8-65DC-49E7-8567-0EAA4B2A7D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEFBE9E5-ECFE-4464-B1F5-4D9FE05D927D}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Receita Original</t>
   </si>
   <si>
-    <t>Conversão</t>
-  </si>
-  <si>
     <t>g de cenoura</t>
   </si>
   <si>
@@ -66,6 +63,12 @@
   </si>
   <si>
     <t>Aproveitte</t>
+  </si>
+  <si>
+    <t>Receita Adaptada</t>
+  </si>
+  <si>
+    <t>Razão</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -114,7 +117,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -128,12 +131,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -144,8 +141,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -153,215 +156,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,31 +507,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5502FDAF-F75E-4088-804A-376F051672CF}">
-  <dimension ref="B1:K13"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="2.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="2.42578125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -718,225 +539,238 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="10">
+        <v>270</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="12">
+      <c r="E6" s="2"/>
+      <c r="F6" s="11">
+        <v>450</v>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f>D6</f>
+        <v>g de cenoura</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="8">
         <f>F6/C6</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="14">
-        <v>270</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="J6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="10">
+        <v>200</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="16">
-        <v>450</v>
-      </c>
-      <c r="G6" s="17" t="str">
-        <f>D6</f>
-        <v>g de cenoura</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="19">
-        <v>200</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="21">
-        <f>C7*$I$5</f>
+      <c r="E7" s="2"/>
+      <c r="F7" s="13">
+        <f>C7*$I$6</f>
         <v>333.33333333333337</v>
       </c>
-      <c r="G7" s="22" t="str">
+      <c r="G7" s="13" t="str">
         <f t="shared" ref="G7:G12" si="0">D7</f>
         <v>ml de óleo</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="19">
+      <c r="B8" s="2"/>
+      <c r="C8" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="23">
-        <f>C8*$I$5</f>
+      <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="13">
+        <f>C8*$I$6</f>
         <v>5</v>
       </c>
-      <c r="G8" s="24" t="str">
+      <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ovos</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="19">
+      <c r="B9" s="2"/>
+      <c r="C9" s="10">
         <v>360</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25">
-        <f>C9*$I$5</f>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="13">
+        <f>C9*$I$6</f>
         <v>600</v>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>g de açúcar</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="19">
+      <c r="B10" s="2"/>
+      <c r="C10" s="10">
         <v>240</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25">
-        <f>C10*$I$5</f>
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="13">
+        <f>C10*$I$6</f>
         <v>400</v>
       </c>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>g de farinha de trigo</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="19">
+      <c r="B11" s="2"/>
+      <c r="C11" s="10">
         <v>8</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25">
-        <f>C11*$I$5</f>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="13">
+        <f>C11*$I$6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>g de fermento em pó</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="19">
+      <c r="B12" s="2"/>
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25">
-        <f>C12*$I$5</f>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="13">
+        <f>C12*$I$6</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>pitada de sal</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C3:J3"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cálculos/exemplos.xlsx
+++ b/cálculos/exemplos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\aproveitte\cálculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174172B8-65DC-49E7-8567-0EAA4B2A7D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7F9787-9D34-415D-8614-473B6EAC88E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEFBE9E5-ECFE-4464-B1F5-4D9FE05D927D}"/>
   </bookViews>
@@ -148,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,26 +156,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,11 +206,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +542,7 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,16 +575,16 @@
     </row>
     <row r="3" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -569,63 +601,63 @@
     </row>
     <row r="5" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>270</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="11">
+      <c r="F6" s="14">
         <v>450</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="15" t="str">
         <f>D6</f>
         <v>g de cenoura</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f>F6/C6</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="10">
+      <c r="C7" s="12">
         <v>200</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="13">
-        <f>C7*$I$6</f>
+      <c r="F7" s="16">
+        <f t="shared" ref="F7:F12" si="0">C7*$I$6</f>
         <v>333.33333333333337</v>
       </c>
-      <c r="G7" s="13" t="str">
-        <f t="shared" ref="G7:G12" si="0">D7</f>
+      <c r="G7" s="16" t="str">
+        <f t="shared" ref="G7:G12" si="1">D7</f>
         <v>ml de óleo</v>
       </c>
       <c r="H7" s="3"/>
@@ -635,19 +667,19 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="10">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="13">
-        <f>C8*$I$6</f>
+      <c r="F8" s="16">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>ovos</v>
       </c>
       <c r="H8" s="3"/>
@@ -657,19 +689,19 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="10">
+      <c r="C9" s="12">
         <v>360</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="13">
-        <f>C9*$I$6</f>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G9" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>g de açúcar</v>
       </c>
       <c r="H9" s="3"/>
@@ -679,19 +711,19 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="10">
+      <c r="C10" s="12">
         <v>240</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="13">
-        <f>C10*$I$6</f>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G10" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>g de farinha de trigo</v>
       </c>
       <c r="H10" s="3"/>
@@ -701,19 +733,19 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>8</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="13">
-        <f>C11*$I$6</f>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G11" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>g de fermento em pó</v>
       </c>
       <c r="H11" s="3"/>
@@ -723,19 +755,19 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="13">
-        <f>C12*$I$6</f>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>pitada de sal</v>
       </c>
       <c r="H12" s="3"/>
@@ -756,14 +788,14 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
